--- a/data/input/management/202508.xlsx
+++ b/data/input/management/202508.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cervedgroup-my.sharepoint.com/personal/alexis_milionis_cerved_com/Documents/codebase/Utilities/streamlit/data/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cervedgroup-my.sharepoint.com/personal/alexis_milionis_cerved_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_36B9B36E465BCCC28434D23FDCF813067D5D75AB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C6015E0-E343-4AEB-BDAF-D417A181A8DB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5DA9FC4-7E53-46C7-ADF2-2B8C602BB6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{755E63F6-ECD9-4AAE-9B9A-4A1F1FA78222}"/>
   </bookViews>
   <sheets>
-    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
+    <sheet name="914351 01.08.2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_914351" localSheetId="0">Φύλλο1!$A$2:$AR$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$AQ$1</definedName>
+    <definedName name="_914351" localSheetId="0">'914351 01.08.2025'!$A$2:$AQ$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'914351 01.08.2025'!$A$1:$AQ$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,6 +97,135 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="267">
   <si>
+    <t>ΔΙΑΔΡΟΜΗ</t>
+  </si>
+  <si>
+    <t>ΑΡ.ΠΑΡΟΧΗΣ</t>
+  </si>
+  <si>
+    <t>ΠΕΡΙΟΔΟΣ ΚΑΤΑΝΑΛΩΣΗΣ ΑΠΌ</t>
+  </si>
+  <si>
+    <t>ΠΕΡΙΟΔΟΣ ΚΑΤΑΝΑΛΩΣΗΣ ΕΩΣ</t>
+  </si>
+  <si>
+    <t>ΗΜΕΡ.ΛΗΞΕΩΣ</t>
+  </si>
+  <si>
+    <t>ΗΜ.ΚΑΤΑΝΑΛΩΣΗΣ</t>
+  </si>
+  <si>
+    <t>ΠΕΡΙΦ.ΓΡΑΦ.</t>
+  </si>
+  <si>
+    <t>ΤΙΜΟΛΟΓΙΟ</t>
+  </si>
+  <si>
+    <t>ΙΔΙΟΚΤΗΤΗΣ</t>
+  </si>
+  <si>
+    <t>ΕΝΟΙΚΟΣ</t>
+  </si>
+  <si>
+    <t>ΔΙΕΥΘΥΝΣΗ</t>
+  </si>
+  <si>
+    <t>ΑΦΜ</t>
+  </si>
+  <si>
+    <t>ΑΡ.ΜΕΤΡΗΤΗ</t>
+  </si>
+  <si>
+    <t>ΔΙΑΜ.</t>
+  </si>
+  <si>
+    <t>ΠΡΟΗΓ.ΕΝΔ.</t>
+  </si>
+  <si>
+    <t>ΠΑΡ.ΕΝΔΕΙΞΗ</t>
+  </si>
+  <si>
+    <t>ΤΕΚΜ.</t>
+  </si>
+  <si>
+    <t>ΤΡΙΜ</t>
+  </si>
+  <si>
+    <t>ΠΡΟΣΘ</t>
+  </si>
+  <si>
+    <t>ΤΥΠΟΣ ΛΟΓΑΡΙΑΣΜΟΥ</t>
+  </si>
+  <si>
+    <t>ΚΥΒΙΚΑ 1</t>
+  </si>
+  <si>
+    <t>ΤΙΜΗΜΑ 1</t>
+  </si>
+  <si>
+    <t>ΚΥΒΙΚΑ 2</t>
+  </si>
+  <si>
+    <t>ΤΙΜΗΜΑ 2</t>
+  </si>
+  <si>
+    <t>ΚΥΒ.3</t>
+  </si>
+  <si>
+    <t>ΤΙΜ.3</t>
+  </si>
+  <si>
+    <t>ΚΥΒ.4</t>
+  </si>
+  <si>
+    <t>ΤΙΜΗΜΑ 4</t>
+  </si>
+  <si>
+    <t>ΚΥΒ.5</t>
+  </si>
+  <si>
+    <t>ΤΙΜΗΜΑ 5</t>
+  </si>
+  <si>
+    <t>ΤΙΜΗΜΑ</t>
+  </si>
+  <si>
+    <t>ΠΑΓΙΟ</t>
+  </si>
+  <si>
+    <t>ΤΕΑΠ</t>
+  </si>
+  <si>
+    <t>ΟΑΠ</t>
+  </si>
+  <si>
+    <t>ΦΠΑ ΤΙΜ.</t>
+  </si>
+  <si>
+    <t>ΦΠΑ ΛΟΙΠΩΝ</t>
+  </si>
+  <si>
+    <t>ΕΡΓΑΣΙΕΣ</t>
+  </si>
+  <si>
+    <t>ΔΙΑΦ.ΚΕΡΜ.</t>
+  </si>
+  <si>
+    <t>ΚΥΡΙΑ ΟΦ.</t>
+  </si>
+  <si>
+    <t>ΠΙΣΤΩΤΙΚΟ</t>
+  </si>
+  <si>
+    <t>ΟΦΕΙΛΗ</t>
+  </si>
+  <si>
+    <t>ΑΡ.ΠΑΡΑΣΤΑΤΙΚΟΥ</t>
+  </si>
+  <si>
+    <t>ΗΜΕΡΟΜ.ΕΚΔΟΣΗΣ</t>
+  </si>
+  <si>
     <t>Α</t>
   </si>
   <si>
@@ -767,135 +896,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 68.52</t>
-  </si>
-  <si>
-    <t>ΔΙΑΔΡΟΜΗ</t>
-  </si>
-  <si>
-    <t>ΑΡ.ΠΑΡΟΧΗΣ</t>
-  </si>
-  <si>
-    <t>ΠΕΡΙΟΔΟΣ ΚΑΤΑΝΑΛΩΣΗΣ ΑΠΌ</t>
-  </si>
-  <si>
-    <t>ΠΕΡΙΟΔΟΣ ΚΑΤΑΝΑΛΩΣΗΣ ΕΩΣ</t>
-  </si>
-  <si>
-    <t>ΗΜΕΡ.ΛΗΞΕΩΣ</t>
-  </si>
-  <si>
-    <t>ΗΜ.ΚΑΤΑΝΑΛΩΣΗΣ</t>
-  </si>
-  <si>
-    <t>ΠΕΡΙΦ.ΓΡΑΦ.</t>
-  </si>
-  <si>
-    <t>ΤΙΜΟΛΟΓΙΟ</t>
-  </si>
-  <si>
-    <t>ΙΔΙΟΚΤΗΤΗΣ</t>
-  </si>
-  <si>
-    <t>ΕΝΟΙΚΟΣ</t>
-  </si>
-  <si>
-    <t>ΔΙΕΥΘΥΝΣΗ</t>
-  </si>
-  <si>
-    <t>ΑΦΜ</t>
-  </si>
-  <si>
-    <t>ΑΡ.ΜΕΤΡΗΤΗ</t>
-  </si>
-  <si>
-    <t>ΔΙΑΜ.</t>
-  </si>
-  <si>
-    <t>ΠΡΟΗΓ.ΕΝΔ.</t>
-  </si>
-  <si>
-    <t>ΠΑΡ.ΕΝΔΕΙΞΗ</t>
-  </si>
-  <si>
-    <t>ΤΕΚΜ.</t>
-  </si>
-  <si>
-    <t>ΤΡΙΜ</t>
-  </si>
-  <si>
-    <t>ΠΡΟΣΘ</t>
-  </si>
-  <si>
-    <t>ΤΥΠΟΣ ΛΟΓΑΡΙΑΣΜΟΥ</t>
-  </si>
-  <si>
-    <t>ΚΥΒΙΚΑ 1</t>
-  </si>
-  <si>
-    <t>ΤΙΜΗΜΑ 1</t>
-  </si>
-  <si>
-    <t>ΚΥΒΙΚΑ 2</t>
-  </si>
-  <si>
-    <t>ΤΙΜΗΜΑ 2</t>
-  </si>
-  <si>
-    <t>ΚΥΒ.3</t>
-  </si>
-  <si>
-    <t>ΤΙΜ.3</t>
-  </si>
-  <si>
-    <t>ΚΥΒ.4</t>
-  </si>
-  <si>
-    <t>ΤΙΜΗΜΑ 4</t>
-  </si>
-  <si>
-    <t>ΚΥΒ.5</t>
-  </si>
-  <si>
-    <t>ΤΙΜΗΜΑ 5</t>
-  </si>
-  <si>
-    <t>ΤΙΜΗΜΑ</t>
-  </si>
-  <si>
-    <t>ΠΑΓΙΟ</t>
-  </si>
-  <si>
-    <t>ΤΕΑΠ</t>
-  </si>
-  <si>
-    <t>ΟΑΠ</t>
-  </si>
-  <si>
-    <t>ΦΠΑ ΤΙΜ.</t>
-  </si>
-  <si>
-    <t>ΦΠΑ ΛΟΙΠΩΝ</t>
-  </si>
-  <si>
-    <t>ΕΡΓΑΣΙΕΣ</t>
-  </si>
-  <si>
-    <t>ΔΙΑΦ.ΚΕΡΜ.</t>
-  </si>
-  <si>
-    <t>ΚΥΡΙΑ ΟΦ.</t>
-  </si>
-  <si>
-    <t>ΠΙΣΤΩΤΙΚΟ</t>
-  </si>
-  <si>
-    <t>ΟΦΕΙΛΗ</t>
-  </si>
-  <si>
-    <t>ΑΡ.ΠΑΡΑΣΤΑΤΙΚΟΥ</t>
-  </si>
-  <si>
-    <t>ΗΜΕΡΟΜ.ΕΚΔΟΣΗΣ</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1036,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1059,13 +1058,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Κανονικό 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Κανονικό 2" xfId="1" xr:uid="{EA3140AB-A749-43F4-BECD-6B3B3CC29316}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1081,7 +1081,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="914351" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="914351" connectionId="1" xr16:uid="{5CD4E9B4-5CED-496B-83B7-51740F11A0D7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1346,11 +1346,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7386F0D5-602D-44D4-9DF9-D3EC57CB51E9}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:AQ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AV18" sqref="AV18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,174 +1362,167 @@
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="24" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="55.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="7" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19.28515625" style="12" customWidth="1"/>
+    <col min="42" max="42" width="19.28515625" style="11" customWidth="1"/>
     <col min="43" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="AP1" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>266</v>
+    <row r="1" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
@@ -1536,41 +1532,41 @@
       <c r="B2">
         <v>221</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="9">
         <v>45744</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="9">
         <v>45833</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="9">
         <v>45870</v>
       </c>
       <c r="F2">
         <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="L2">
         <v>996866969</v>
       </c>
       <c r="M2" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="O2">
         <v>1430</v>
@@ -1588,45 +1584,45 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="V2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="AE2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="AF2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="AH2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="AI2" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="AJ2" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="AL2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="AN2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO2" s="10">
         <v>8.0500000000000007</v>
       </c>
-      <c r="AP2" s="12">
+      <c r="AP2" s="11">
         <v>20250006117870</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AQ2" s="9">
         <v>45842</v>
       </c>
     </row>
@@ -1637,41 +1633,41 @@
       <c r="B3">
         <v>374912</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="9">
         <v>45752</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="9">
         <v>45848</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="9">
         <v>45883</v>
       </c>
       <c r="F3">
         <v>97</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="L3">
         <v>996866969</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="N3" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="O3">
         <v>9</v>
@@ -1680,7 +1676,7 @@
         <v>9</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1689,45 +1685,45 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U3" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="V3" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="AE3" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="AF3" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="AH3" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AI3" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="AJ3" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM3" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="AN3" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="AO3" s="10">
         <v>7.5</v>
       </c>
-      <c r="AP3" s="12">
+      <c r="AP3" s="11">
         <v>20250006532719</v>
       </c>
-      <c r="AQ3" s="1">
+      <c r="AQ3" s="9">
         <v>45855</v>
       </c>
     </row>
@@ -1738,41 +1734,41 @@
       <c r="B4">
         <v>1794826</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="9">
         <v>45752</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="9">
         <v>45848</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="9">
         <v>45883</v>
       </c>
       <c r="F4">
         <v>97</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="L4">
         <v>996866969</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="O4">
         <v>15215</v>
@@ -1790,69 +1786,69 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U4" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="W4" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="AH4" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AI4" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AJ4" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="AL4" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM4" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AN4" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AO4" s="10">
         <v>274.63</v>
       </c>
-      <c r="AP4" s="12">
+      <c r="AP4" s="11">
         <v>20250006534157</v>
       </c>
-      <c r="AQ4" s="1">
+      <c r="AQ4" s="9">
         <v>45855</v>
       </c>
     </row>
@@ -1863,41 +1859,41 @@
       <c r="B5">
         <v>691461</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="9">
         <v>45759</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="9">
         <v>45852</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="9">
         <v>45902</v>
       </c>
       <c r="F5">
         <v>94</v>
       </c>
       <c r="G5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
       <c r="I5" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="L5">
         <v>996866969</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="O5">
         <v>22526</v>
@@ -1915,69 +1911,69 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U5" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="V5" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="W5" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="X5" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="Y5" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="Z5" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="AA5" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="AB5" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="AC5" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AD5" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="AE5" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AH5" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AI5" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="AJ5" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="AL5" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM5" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AN5" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO5" s="10">
         <v>4407.75</v>
       </c>
-      <c r="AP5" s="12">
+      <c r="AP5" s="11">
         <v>20250006677125</v>
       </c>
-      <c r="AQ5" s="1">
+      <c r="AQ5" s="9">
         <v>45860</v>
       </c>
     </row>
@@ -1988,41 +1984,41 @@
       <c r="B6">
         <v>689107</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="9">
         <v>45749</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="9">
         <v>45840</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="9">
         <v>45874</v>
       </c>
       <c r="F6">
         <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L6">
         <v>996866969</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="O6">
         <v>302</v>
@@ -2040,66 +2036,66 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U6" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="V6" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="W6" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="X6" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AB6" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="AE6" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AF6" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AH6" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AI6" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="AJ6" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="AK6" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="AL6" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM6" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="AN6" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO6" s="10">
         <v>193.91</v>
       </c>
-      <c r="AP6" s="12">
+      <c r="AP6" s="11">
         <v>20250006197609</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AQ6" s="9">
         <v>45846</v>
       </c>
     </row>
@@ -2110,41 +2106,41 @@
       <c r="B7">
         <v>689108</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="9">
         <v>45749</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="9">
         <v>45840</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="9">
         <v>45874</v>
       </c>
       <c r="F7">
         <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H7" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L7">
         <v>996866969</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="N7" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="O7">
         <v>1795</v>
@@ -2162,51 +2158,51 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U7" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="V7" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="W7" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="X7" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="AE7" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="AF7" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AH7" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="AI7" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="AJ7" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="AL7" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM7" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="AN7" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO7" s="10">
         <v>23.7</v>
       </c>
-      <c r="AP7" s="12">
+      <c r="AP7" s="11">
         <v>20250006197610</v>
       </c>
-      <c r="AQ7" s="1">
+      <c r="AQ7" s="9">
         <v>45846</v>
       </c>
     </row>
@@ -2217,41 +2213,41 @@
       <c r="B8">
         <v>1005741</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="9">
         <v>45755</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="9">
         <v>45840</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="9">
         <v>45874</v>
       </c>
       <c r="F8">
         <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="I8" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L8">
         <v>996866969</v>
       </c>
       <c r="M8" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="N8" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -2269,33 +2265,33 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="AF8" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="AI8" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AJ8" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="AL8" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM8" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="AN8" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO8" s="10">
         <v>39.15</v>
       </c>
-      <c r="AP8" s="12">
+      <c r="AP8" s="11">
         <v>20250006197906</v>
       </c>
-      <c r="AQ8" s="1">
+      <c r="AQ8" s="9">
         <v>45846</v>
       </c>
     </row>
@@ -2306,41 +2302,41 @@
       <c r="B9">
         <v>2174564</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="9">
         <v>45749</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="9">
         <v>45840</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="9">
         <v>45874</v>
       </c>
       <c r="F9">
         <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H9" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L9">
         <v>996866969</v>
       </c>
       <c r="M9" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="O9">
         <v>3849</v>
@@ -2358,51 +2354,51 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U9" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="V9" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="W9" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="X9" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="AE9" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="AF9" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AH9" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AI9" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="AJ9" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="AL9" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM9" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AN9" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO9" s="10">
         <v>55.33</v>
       </c>
-      <c r="AP9" s="12">
+      <c r="AP9" s="11">
         <v>20250006199581</v>
       </c>
-      <c r="AQ9" s="1">
+      <c r="AQ9" s="9">
         <v>45846</v>
       </c>
     </row>
@@ -2413,41 +2409,41 @@
       <c r="B10">
         <v>2174565</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="9">
         <v>45749</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="9">
         <v>45840</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="9">
         <v>45874</v>
       </c>
       <c r="F10">
         <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H10" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L10">
         <v>996866969</v>
       </c>
       <c r="M10" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="O10">
         <v>1734</v>
@@ -2465,45 +2461,45 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U10" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="V10" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="AE10" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="AF10" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AH10" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="AI10" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="AJ10" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="AL10" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM10" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="AN10" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO10" s="10">
         <v>11.03</v>
       </c>
-      <c r="AP10" s="12">
+      <c r="AP10" s="11">
         <v>20250006199582</v>
       </c>
-      <c r="AQ10" s="1">
+      <c r="AQ10" s="9">
         <v>45846</v>
       </c>
     </row>
@@ -2514,41 +2510,41 @@
       <c r="B11">
         <v>2174566</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="9">
         <v>45749</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="9">
         <v>45840</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="9">
         <v>45874</v>
       </c>
       <c r="F11">
         <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H11" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L11">
         <v>996866969</v>
       </c>
       <c r="M11" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="N11" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="O11">
         <v>4431</v>
@@ -2566,51 +2562,51 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U11" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="V11" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="W11" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="X11" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="AE11" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="AF11" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AH11" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="AI11" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="AJ11" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="AL11" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM11" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="AN11" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO11" s="10">
         <v>46.11</v>
       </c>
-      <c r="AP11" s="12">
+      <c r="AP11" s="11">
         <v>20250006199583</v>
       </c>
-      <c r="AQ11" s="1">
+      <c r="AQ11" s="9">
         <v>45846</v>
       </c>
     </row>
@@ -2621,41 +2617,41 @@
       <c r="B12">
         <v>2174567</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="9">
         <v>45749</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="9">
         <v>45840</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="9">
         <v>45874</v>
       </c>
       <c r="F12">
         <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L12">
         <v>996866969</v>
       </c>
       <c r="M12" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="N12" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="O12">
         <v>4539</v>
@@ -2673,51 +2669,51 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U12" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="V12" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="W12" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="X12" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="AE12" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="AF12" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AH12" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="AI12" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="AJ12" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="AL12" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM12" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="AN12" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO12" s="10">
         <v>42.15</v>
       </c>
-      <c r="AP12" s="12">
+      <c r="AP12" s="11">
         <v>20250006199584</v>
       </c>
-      <c r="AQ12" s="1">
+      <c r="AQ12" s="9">
         <v>45846</v>
       </c>
     </row>
@@ -2728,41 +2724,41 @@
       <c r="B13">
         <v>2174568</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="9">
         <v>45749</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="9">
         <v>45840</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="9">
         <v>45874</v>
       </c>
       <c r="F13">
         <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H13" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J13" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L13">
         <v>996866969</v>
       </c>
       <c r="M13" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="N13" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="O13">
         <v>2858</v>
@@ -2780,51 +2776,51 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U13" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="V13" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="W13" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="X13" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="AE13" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="AF13" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AH13" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="AI13" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="AJ13" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="AL13" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM13" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="AN13" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO13" s="10">
         <v>23.7</v>
       </c>
-      <c r="AP13" s="12">
+      <c r="AP13" s="11">
         <v>20250006199585</v>
       </c>
-      <c r="AQ13" s="1">
+      <c r="AQ13" s="9">
         <v>45846</v>
       </c>
     </row>
@@ -2835,41 +2831,41 @@
       <c r="B14">
         <v>2174569</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="9">
         <v>45749</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="9">
         <v>45840</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="9">
         <v>45874</v>
       </c>
       <c r="F14">
         <v>92</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L14">
         <v>996866969</v>
       </c>
       <c r="M14" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="O14">
         <v>4739</v>
@@ -2887,51 +2883,51 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U14" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="V14" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="W14" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="X14" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="AE14" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="AF14" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AH14" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="AI14" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="AJ14" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="AL14" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM14" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="AN14" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO14" s="10">
         <v>54.02</v>
       </c>
-      <c r="AP14" s="12">
+      <c r="AP14" s="11">
         <v>20250006199586</v>
       </c>
-      <c r="AQ14" s="1">
+      <c r="AQ14" s="9">
         <v>45846</v>
       </c>
     </row>
@@ -2942,41 +2938,41 @@
       <c r="B15">
         <v>2174570</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="9">
         <v>45749</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="9">
         <v>45840</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="9">
         <v>45874</v>
       </c>
       <c r="F15">
         <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H15" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L15">
         <v>996866969</v>
       </c>
       <c r="M15" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="O15">
         <v>5789</v>
@@ -2994,51 +2990,51 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U15" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="V15" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="W15" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="X15" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="AE15" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="AF15" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AH15" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="AI15" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="AJ15" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="AL15" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM15" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="AN15" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO15" s="10">
         <v>56.66</v>
       </c>
-      <c r="AP15" s="12">
+      <c r="AP15" s="11">
         <v>20250006199587</v>
       </c>
-      <c r="AQ15" s="1">
+      <c r="AQ15" s="9">
         <v>45846</v>
       </c>
     </row>
@@ -3049,41 +3045,41 @@
       <c r="B16">
         <v>2174571</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="9">
         <v>45749</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="9">
         <v>45840</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="9">
         <v>45874</v>
       </c>
       <c r="F16">
         <v>92</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H16" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L16">
         <v>996866969</v>
       </c>
       <c r="M16" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="O16">
         <v>6433</v>
@@ -3101,69 +3097,69 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U16" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="V16" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="W16" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="X16" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="Y16" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="Z16" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="AA16" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="AB16" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="AC16" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="AD16" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="AE16" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="AF16" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AH16" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="AI16" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="AJ16" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="AL16" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM16" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="AN16" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO16" s="10">
         <v>527.70000000000005</v>
       </c>
-      <c r="AP16" s="12">
+      <c r="AP16" s="11">
         <v>20250006199588</v>
       </c>
-      <c r="AQ16" s="1">
+      <c r="AQ16" s="9">
         <v>45846</v>
       </c>
     </row>
@@ -3174,41 +3170,41 @@
       <c r="B17">
         <v>2174572</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="9">
         <v>45749</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="9">
         <v>45840</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="9">
         <v>45874</v>
       </c>
       <c r="F17">
         <v>92</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H17" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L17">
         <v>996866969</v>
       </c>
       <c r="M17" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="N17" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="O17">
         <v>3597</v>
@@ -3226,51 +3222,51 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U17" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="V17" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="W17" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="X17" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="AE17" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="AF17" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AH17" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="AI17" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="AJ17" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="AL17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM17" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="AN17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO17" s="10">
         <v>34.24</v>
       </c>
-      <c r="AP17" s="12">
+      <c r="AP17" s="11">
         <v>20250006199589</v>
       </c>
-      <c r="AQ17" s="1">
+      <c r="AQ17" s="9">
         <v>45846</v>
       </c>
     </row>
@@ -3281,41 +3277,41 @@
       <c r="B18">
         <v>2174573</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="9">
         <v>45749</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="9">
         <v>45840</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="9">
         <v>45874</v>
       </c>
       <c r="F18">
         <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H18" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J18" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K18" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L18">
         <v>996866969</v>
       </c>
       <c r="M18" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="N18" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="O18">
         <v>4031</v>
@@ -3333,51 +3329,51 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U18" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="V18" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="W18" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="X18" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="AE18" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="AF18" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AH18" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="AI18" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="AJ18" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="AL18" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM18" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="AN18" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO18" s="10">
         <v>43.48</v>
       </c>
-      <c r="AP18" s="12">
+      <c r="AP18" s="11">
         <v>20250006199590</v>
       </c>
-      <c r="AQ18" s="1">
+      <c r="AQ18" s="9">
         <v>45846</v>
       </c>
     </row>
@@ -3388,41 +3384,41 @@
       <c r="B19">
         <v>2174574</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="9">
         <v>45749</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="9">
         <v>45840</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="9">
         <v>45874</v>
       </c>
       <c r="F19">
         <v>92</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H19" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K19" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L19">
         <v>996866969</v>
       </c>
       <c r="M19" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="N19" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="O19">
         <v>3873</v>
@@ -3440,51 +3436,51 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U19" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="V19" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="W19" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="X19" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="AE19" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="AF19" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AH19" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="AI19" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="AJ19" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="AL19" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM19" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="AN19" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO19" s="10">
         <v>39.520000000000003</v>
       </c>
-      <c r="AP19" s="12">
+      <c r="AP19" s="11">
         <v>20250006199591</v>
       </c>
-      <c r="AQ19" s="1">
+      <c r="AQ19" s="9">
         <v>45846</v>
       </c>
     </row>
@@ -3495,41 +3491,41 @@
       <c r="B20">
         <v>2174575</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="9">
         <v>45749</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="9">
         <v>45840</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="9">
         <v>45874</v>
       </c>
       <c r="F20">
         <v>92</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H20" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K20" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L20">
         <v>996866969</v>
       </c>
       <c r="M20" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="N20" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="O20">
         <v>5423</v>
@@ -3547,57 +3543,57 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U20" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="V20" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="W20" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="X20" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="Y20" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="Z20" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="AE20" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="AF20" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AH20" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="AI20" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="AJ20" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="AL20" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM20" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="AN20" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO20" s="10">
         <v>89.45</v>
       </c>
-      <c r="AP20" s="12">
+      <c r="AP20" s="11">
         <v>20250006199592</v>
       </c>
-      <c r="AQ20" s="1">
+      <c r="AQ20" s="9">
         <v>45846</v>
       </c>
     </row>
@@ -3608,41 +3604,41 @@
       <c r="B21">
         <v>2174576</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="9">
         <v>45749</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="9">
         <v>45840</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="9">
         <v>45874</v>
       </c>
       <c r="F21">
         <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H21" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J21" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L21">
         <v>996866969</v>
       </c>
       <c r="M21" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="N21" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="O21">
         <v>5414</v>
@@ -3660,57 +3656,57 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U21" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="V21" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="W21" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="X21" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="Y21" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="Z21" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AE21" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="AF21" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AH21" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="AI21" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="AJ21" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="AL21" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM21" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="AN21" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO21" s="10">
         <v>104.53</v>
       </c>
-      <c r="AP21" s="12">
+      <c r="AP21" s="11">
         <v>20250006199593</v>
       </c>
-      <c r="AQ21" s="1">
+      <c r="AQ21" s="9">
         <v>45846</v>
       </c>
     </row>
@@ -3721,41 +3717,41 @@
       <c r="B22">
         <v>2174577</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="9">
         <v>45749</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="9">
         <v>45840</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="9">
         <v>45874</v>
       </c>
       <c r="F22">
         <v>92</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H22" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J22" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K22" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L22">
         <v>996866969</v>
       </c>
       <c r="M22" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="N22" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="O22">
         <v>6283</v>
@@ -3773,69 +3769,69 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U22" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="V22" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="W22" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="X22" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="Y22" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="Z22" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="AA22" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="AB22" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="AC22" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="AD22" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="AE22" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="AF22" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AH22" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="AI22" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="AJ22" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="AL22" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM22" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="AN22" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO22" s="10">
         <v>382.67</v>
       </c>
-      <c r="AP22" s="12">
+      <c r="AP22" s="11">
         <v>20250006199594</v>
       </c>
-      <c r="AQ22" s="1">
+      <c r="AQ22" s="9">
         <v>45846</v>
       </c>
     </row>
@@ -3846,41 +3842,41 @@
       <c r="B23">
         <v>2174578</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="9">
         <v>45749</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="9">
         <v>45840</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="9">
         <v>45874</v>
       </c>
       <c r="F23">
         <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H23" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K23" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L23">
         <v>996866969</v>
       </c>
       <c r="M23" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="N23" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="O23">
         <v>4526</v>
@@ -3898,51 +3894,51 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U23" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="V23" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="W23" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="X23" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="AE23" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="AF23" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AH23" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="AI23" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="AJ23" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="AL23" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM23" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="AN23" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO23" s="10">
         <v>42.15</v>
       </c>
-      <c r="AP23" s="12">
+      <c r="AP23" s="11">
         <v>20250006199595</v>
       </c>
-      <c r="AQ23" s="1">
+      <c r="AQ23" s="9">
         <v>45846</v>
       </c>
     </row>
@@ -3953,41 +3949,41 @@
       <c r="B24">
         <v>2174579</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="9">
         <v>45749</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="9">
         <v>45840</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="9">
         <v>45874</v>
       </c>
       <c r="F24">
         <v>92</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H24" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I24" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L24">
         <v>996866969</v>
       </c>
       <c r="M24" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="N24" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="O24">
         <v>4218</v>
@@ -4005,51 +4001,51 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U24" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="V24" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="W24" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="X24" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="AE24" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="AF24" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AH24" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="AI24" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="AJ24" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="AL24" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM24" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="AN24" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO24" s="10">
         <v>48.75</v>
       </c>
-      <c r="AP24" s="12">
+      <c r="AP24" s="11">
         <v>20250006199596</v>
       </c>
-      <c r="AQ24" s="1">
+      <c r="AQ24" s="9">
         <v>45846</v>
       </c>
     </row>
@@ -4060,41 +4056,41 @@
       <c r="B25">
         <v>2174580</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="9">
         <v>45749</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="9">
         <v>45840</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="9">
         <v>45874</v>
       </c>
       <c r="F25">
         <v>92</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H25" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K25" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L25">
         <v>996866969</v>
       </c>
       <c r="M25" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="N25" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="O25">
         <v>4010</v>
@@ -4103,7 +4099,7 @@
         <v>4010</v>
       </c>
       <c r="Q25" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -4112,45 +4108,45 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U25" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="V25" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="AE25" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="AF25" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AH25" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="AI25" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="AJ25" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="AL25" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM25" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="AN25" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO25" s="10">
         <v>8.23</v>
       </c>
-      <c r="AP25" s="12">
+      <c r="AP25" s="11">
         <v>20250006199597</v>
       </c>
-      <c r="AQ25" s="1">
+      <c r="AQ25" s="9">
         <v>45846</v>
       </c>
     </row>
@@ -4161,41 +4157,41 @@
       <c r="B26">
         <v>2174581</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="9">
         <v>45749</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="9">
         <v>45840</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="9">
         <v>45874</v>
       </c>
       <c r="F26">
         <v>92</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H26" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L26">
         <v>996866969</v>
       </c>
       <c r="M26" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="N26" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="O26">
         <v>5763</v>
@@ -4213,51 +4209,51 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U26" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="V26" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="W26" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="X26" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="AE26" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="AF26" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AH26" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="AI26" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="AJ26" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="AL26" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM26" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="AN26" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO26" s="10">
         <v>48.75</v>
       </c>
-      <c r="AP26" s="12">
+      <c r="AP26" s="11">
         <v>20250006199598</v>
       </c>
-      <c r="AQ26" s="1">
+      <c r="AQ26" s="9">
         <v>45846</v>
       </c>
     </row>
@@ -4268,41 +4264,41 @@
       <c r="B27">
         <v>2174582</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="9">
         <v>45749</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="9">
         <v>45840</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="9">
         <v>45874</v>
       </c>
       <c r="F27">
         <v>92</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H27" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I27" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K27" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L27">
         <v>996866969</v>
       </c>
       <c r="M27" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="N27" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="O27">
         <v>6790</v>
@@ -4320,359 +4316,59 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="U27" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="V27" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="W27" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="X27" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="AE27" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="AF27" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AH27" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="AI27" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="AJ27" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="AL27" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AM27" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="AN27" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AO27" s="10">
         <v>68.52</v>
       </c>
-      <c r="AP27" s="12">
+      <c r="AP27" s="11">
         <v>20250006199599</v>
       </c>
-      <c r="AQ27" s="1">
+      <c r="AQ27" s="9">
         <v>45846</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AO29" s="11"/>
+      <c r="AO29" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AQ27" xr:uid="{C2832CD2-96AF-4164-8263-00E21C9907BC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e2e773af-3e16-4636-9824-83afac0d94b9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Έγγραφο" ma:contentTypeID="0x01010098545D290BE0734BA8B6C299E7534FBA" ma:contentTypeVersion="16" ma:contentTypeDescription="Δημιουργία νέου εγγράφου" ma:contentTypeScope="" ma:versionID="1115902cd30e7a4632b441f1c694ae99">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e2e773af-3e16-4636-9824-83afac0d94b9" xmlns:ns4="61143ee6-6e73-4235-8b48-cdabdd8f5d93" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ad643e4c16ba55e677170d252372de3" ns3:_="" ns4:_="">
-    <xsd:import namespace="e2e773af-3e16-4636-9824-83afac0d94b9"/>
-    <xsd:import namespace="61143ee6-6e73-4235-8b48-cdabdd8f5d93"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns3:_activity" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e2e773af-3e16-4636-9824-83afac0d94b9" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_activity" ma:index="19" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSystemTags" ma:index="21" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="61143ee6-6e73-4235-8b48-cdabdd8f5d93" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Κοινή χρήση με" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Κοινή χρήση με λεπτομέρειες" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="18" nillable="true" ma:displayName="Κοινή χρήση κατακερματισμού υπόδειξης" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Τύπος περιεχομένου"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Τίτλος"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA0C363F-3653-433D-B4BD-13B64F588F97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="61143ee6-6e73-4235-8b48-cdabdd8f5d93"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e2e773af-3e16-4636-9824-83afac0d94b9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C006DBB1-48A2-4AFE-AAEA-96F871FB9E36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e2e773af-3e16-4636-9824-83afac0d94b9"/>
-    <ds:schemaRef ds:uri="61143ee6-6e73-4235-8b48-cdabdd8f5d93"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{511B5F7C-FAA2-4C63-AC2F-777E21458AEC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>